--- a/Texts/Город Сокровищ/Все персонажи/Шеймин 3.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шеймин 3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï äàâîÿÿ òëàèëà, îï íåîåå\nèàãàäïœîúí üóï òïëñïâéþå ïó üóïãï îå\nòóàîïâéóòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0203.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0302.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0403.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2002.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2102.ssb</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +518,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" s="4">
         <v>18</v>
       </c>
@@ -517,7 +535,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -531,7 +552,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="4">
         <v>24</v>
       </c>
@@ -543,6 +567,16 @@
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
